--- a/average_scores_with_turns.xlsx
+++ b/average_scores_with_turns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,391 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>4.7</v>
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>65.26000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>79.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>54.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>38.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>60</v>
+      </c>
+      <c r="D11" t="n">
+        <v>59.16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8.640000000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>18</v>
+      </c>
+      <c r="D13" t="n">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>80</v>
+      </c>
+      <c r="D14" t="n">
+        <v>77.76000000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>90</v>
+      </c>
+      <c r="D15" t="n">
+        <v>90.36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>22</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" t="n">
+        <v>25.76</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>45</v>
+      </c>
+      <c r="D19" t="n">
+        <v>45.96</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>28</v>
+      </c>
+      <c r="D20" t="n">
+        <v>30.22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" t="n">
+        <v>35.68</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>70</v>
+      </c>
+      <c r="D22" t="n">
+        <v>124.08</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>95</v>
+      </c>
+      <c r="D23" t="n">
+        <v>114.44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>55</v>
+      </c>
+      <c r="D24" t="n">
+        <v>57.68</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" t="n">
+        <v>28.56</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.16</v>
       </c>
     </row>
   </sheetData>

--- a/average_scores_with_turns.xlsx
+++ b/average_scores_with_turns.xlsx
@@ -468,7 +468,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>3.98</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>65.26000000000001</v>
+        <v>63.02</v>
       </c>
     </row>
     <row r="4">
@@ -500,7 +500,7 @@
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>79.12</v>
+        <v>79.08</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="6">
@@ -532,7 +532,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>13.24</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +548,7 @@
         <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>54.08</v>
+        <v>54.78</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>35.6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -580,7 +580,7 @@
         <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>38.2</v>
+        <v>38.24</v>
       </c>
     </row>
     <row r="10">
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>6.8</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="11">
@@ -612,7 +612,7 @@
         <v>60</v>
       </c>
       <c r="D11" t="n">
-        <v>59.16</v>
+        <v>59.08</v>
       </c>
     </row>
     <row r="12">
@@ -628,7 +628,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>8.640000000000001</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="14">
@@ -676,7 +676,7 @@
         <v>90</v>
       </c>
       <c r="D15" t="n">
-        <v>90.36</v>
+        <v>90.56</v>
       </c>
     </row>
     <row r="16">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>13.08</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="17">
@@ -708,7 +708,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>13.2</v>
+        <v>13.36</v>
       </c>
     </row>
     <row r="18">
@@ -724,7 +724,7 @@
         <v>35</v>
       </c>
       <c r="D18" t="n">
-        <v>25.76</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="19">
@@ -740,7 +740,7 @@
         <v>45</v>
       </c>
       <c r="D19" t="n">
-        <v>45.96</v>
+        <v>44.24</v>
       </c>
     </row>
     <row r="20">
@@ -756,7 +756,7 @@
         <v>28</v>
       </c>
       <c r="D20" t="n">
-        <v>30.22</v>
+        <v>29.74</v>
       </c>
     </row>
     <row r="21">
@@ -772,7 +772,7 @@
         <v>38</v>
       </c>
       <c r="D21" t="n">
-        <v>35.68</v>
+        <v>35.84</v>
       </c>
     </row>
     <row r="22">
@@ -804,7 +804,7 @@
         <v>95</v>
       </c>
       <c r="D23" t="n">
-        <v>114.44</v>
+        <v>114.12</v>
       </c>
     </row>
     <row r="24">
@@ -820,7 +820,7 @@
         <v>55</v>
       </c>
       <c r="D24" t="n">
-        <v>57.68</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="25">
@@ -836,7 +836,7 @@
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>28.56</v>
+        <v>28.64</v>
       </c>
     </row>
     <row r="26">
@@ -852,7 +852,7 @@
         <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>6.16</v>
+        <v>6.44</v>
       </c>
     </row>
   </sheetData>
